--- a/docs/Voranalyse/Mappe1.xlsx
+++ b/docs/Voranalyse/Mappe1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devZoneRoot\devZoneGit\ch.bfh.cpvr.unitycave\docs\Voranalyse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\github\ch.bfh.cpvr.unitycave\docs\Voranalyse\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -143,10 +143,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -154,7 +151,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-CH"/>
+              <a:rPr lang="de-CH">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>middleVR</a:t>
             </a:r>
           </a:p>
@@ -176,10 +177,7 @@
           <a:pPr>
             <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -213,12 +211,12 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:alpha val="10196"/>
+                <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="50800">
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="tx1">
                   <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -299,11 +297,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="452825864"/>
-        <c:axId val="452822336"/>
+        <c:axId val="1462743200"/>
+        <c:axId val="1462742112"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="452825864"/>
+        <c:axId val="1462743200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -333,10 +331,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -346,7 +341,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452822336"/>
+        <c:crossAx val="1462742112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -354,7 +349,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452822336"/>
+        <c:axId val="1462742112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -364,9 +359,8 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -405,7 +399,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452825864"/>
+        <c:crossAx val="1462743200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -422,22 +416,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="43000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:alphaModFix amt="70000"/>
+      </a:blip>
+      <a:stretch>
+        <a:fillRect l="30000" t="15000" r="30000"/>
+      </a:stretch>
+    </a:blipFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
@@ -490,10 +476,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -523,10 +506,7 @@
           <a:pPr>
             <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -560,12 +540,12 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:alpha val="10196"/>
+                <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="50800">
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="tx1">
                   <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -646,11 +626,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="452698848"/>
-        <c:axId val="452703552"/>
+        <c:axId val="1634960048"/>
+        <c:axId val="1634956240"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="452698848"/>
+        <c:axId val="1634960048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -680,10 +660,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -693,7 +670,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452703552"/>
+        <c:crossAx val="1634956240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -701,19 +678,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452703552"/>
+        <c:axId val="1634956240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -725,34 +701,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="452698848"/>
+        <c:crossAx val="1634960048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -769,22 +718,15 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="43000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:blipFill dpi="0" rotWithShape="1">
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:alphaModFix amt="70000"/>
+      </a:blip>
+      <a:srcRect/>
+      <a:stretch>
+        <a:fillRect l="30000" t="15000" r="30000"/>
+      </a:stretch>
+    </a:blipFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
@@ -801,7 +743,11 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -837,10 +783,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -848,7 +791,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-CH"/>
+              <a:rPr lang="de-CH">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Eigene Lösung</a:t>
             </a:r>
           </a:p>
@@ -870,10 +817,7 @@
           <a:pPr>
             <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -907,13 +851,13 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:alpha val="10196"/>
+                <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="50800">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:alpha val="30000"/>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
             </a:ln>
@@ -993,11 +937,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="452696888"/>
-        <c:axId val="452699632"/>
+        <c:axId val="1634956784"/>
+        <c:axId val="1634962224"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="452696888"/>
+        <c:axId val="1634956784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1027,10 +971,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1040,7 +981,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="452699632"/>
+        <c:crossAx val="1634962224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1048,19 +989,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="452699632"/>
+        <c:axId val="1634962224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1072,34 +1012,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="452696888"/>
+        <c:crossAx val="1634956784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1116,22 +1029,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="43000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:alphaModFix amt="70000"/>
+      </a:blip>
+      <a:stretch>
+        <a:fillRect l="30000" t="15000" r="30000"/>
+      </a:stretch>
+    </a:blipFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
@@ -1184,10 +1089,7 @@
             <a:pPr>
               <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1195,7 +1097,11 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="de-CH"/>
+              <a:rPr lang="de-CH">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
               <a:t>Equalizer</a:t>
             </a:r>
           </a:p>
@@ -1217,10 +1123,7 @@
           <a:pPr>
             <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="70" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1254,12 +1157,12 @@
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1">
-                <a:alpha val="10196"/>
+                <a:alpha val="70000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln w="50800">
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="tx1">
                   <a:alpha val="30000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1340,11 +1243,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="455978168"/>
-        <c:axId val="455974640"/>
+        <c:axId val="1634960592"/>
+        <c:axId val="1634959504"/>
       </c:radarChart>
       <c:catAx>
-        <c:axId val="455978168"/>
+        <c:axId val="1634960592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1374,10 +1277,7 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1387,7 +1287,7 @@
             <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="455974640"/>
+        <c:crossAx val="1634959504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1395,19 +1295,18 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="455974640"/>
+        <c:axId val="1634959504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1419,34 +1318,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1">
-                    <a:lumMod val="50000"/>
-                    <a:lumOff val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="455978168"/>
+        <c:crossAx val="1634960592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1463,22 +1335,14 @@
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:gs>
-        <a:gs pos="43000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
+    <a:blipFill>
+      <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:alphaModFix amt="70000"/>
+      </a:blip>
+      <a:stretch>
+        <a:fillRect l="30000" t="15000" r="30000"/>
+      </a:stretch>
+    </a:blipFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
         <a:schemeClr val="dk1">
@@ -4228,8 +4092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
